--- a/s3_db/data/xlsx/animal_faq.xlsx
+++ b/s3_db/data/xlsx/animal_faq.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuu/repos/rag-stream-manual/s3_db/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{672F8023-5705-024B-8D24-FC1AA5D01999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDB3313-7123-3847-A8EF-B59BB80242A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="1760" windowWidth="22380" windowHeight="15200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="1760" windowWidth="22380" windowHeight="15200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="犬のFAQ" sheetId="1" r:id="rId1"/>
     <sheet name="猫のFAQ" sheetId="3" r:id="rId2"/>
+    <sheet name="犬のFAQ (ヘッダーなし)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>質問</t>
   </si>
@@ -492,7 +493,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B4" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -543,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83B4A37-3D4B-2546-B4B0-2CD52C613585}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -589,4 +590,48 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039C390A-5977-904A-A47D-73B2842EC221}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="38.1640625" customWidth="1"/>
+    <col min="2" max="2" width="95.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>